--- a/OTK-NEW.xlsx
+++ b/OTK-NEW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="814">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="762">
   <x:si>
     <x:t>Div Code</x:t>
   </x:si>
@@ -2300,162 +2300,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> RM 350 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oil &amp; Fats</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1127778</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8888025003310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NATUREL SUNFLOWER OIL 2KG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BUY PAGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26.88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1029018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9557803030013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BUNGA MAS MAJERIN 1KG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1121734</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9555035703811</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOGHUL BASMATHI RICE 5KG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T-01861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SYARIKAT FAIZA SDN BHD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1094316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9555035703675</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KASHMIR FAIZA BASMATHI RICE 5KG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33.60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32.59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>404</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240358</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9557803370799</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OKI FRIED CHICKEN COATING CRAZY HOT 500G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9557803370805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OKI FRIED CHICKEN COATING CURRY 500G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240357</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9557803370393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OKI SALTED EGG SEASONING 120G</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#DIV/0!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#REF!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2806,7 +2650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AI413"/>
+  <x:dimension ref="A1:AI122"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -13641,9690 +13485,6 @@
       </x:c>
       <x:c r="AI122" s="0" t="n">
         <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:35">
-      <x:c r="A123" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>762</x:v>
-      </x:c>
-      <x:c r="C123" s="0" t="s">
-        <x:v>667</x:v>
-      </x:c>
-      <x:c r="E123" s="0" t="s">
-        <x:v>763</x:v>
-      </x:c>
-      <x:c r="F123" s="0" t="s">
-        <x:v>764</x:v>
-      </x:c>
-      <x:c r="G123" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H123" s="0" t="s">
-        <x:v>765</x:v>
-      </x:c>
-      <x:c r="I123" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J123" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K123" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O123" s="0" t="s">
-        <x:v>766</x:v>
-      </x:c>
-      <x:c r="P123" s="0" t="s">
-        <x:v>767</x:v>
-      </x:c>
-      <x:c r="Q123" s="0" t="s">
-        <x:v>768</x:v>
-      </x:c>
-      <x:c r="R123" s="0" t="n">
-        <x:v>0.0518518518518519</x:v>
-      </x:c>
-      <x:c r="T123" s="0" t="s">
-        <x:v>767</x:v>
-      </x:c>
-      <x:c r="U123" s="0" t="n">
-        <x:v>25.68</x:v>
-      </x:c>
-      <x:c r="V123" s="0" t="s">
-        <x:v>769</x:v>
-      </x:c>
-      <x:c r="W123" s="0" t="n">
-        <x:v>0.00407558354946274</x:v>
-      </x:c>
-      <x:c r="X123" s="0" t="s">
-        <x:v>770</x:v>
-      </x:c>
-      <x:c r="Y123" s="0" t="n">
-        <x:v>0.0485364949981474</x:v>
-      </x:c>
-      <x:c r="Z123" s="0" t="s">
-        <x:v>316</x:v>
-      </x:c>
-      <x:c r="AA123" s="0" t="s">
-        <x:v>317</x:v>
-      </x:c>
-      <x:c r="AB123" s="0" t="s">
-        <x:v>406</x:v>
-      </x:c>
-      <x:c r="AC123" s="0" t="n">
-        <x:v>566.79</x:v>
-      </x:c>
-      <x:c r="AD123" s="0" t="n">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="AG123" s="0" t="n">
-        <x:v>7.4592</x:v>
-      </x:c>
-      <x:c r="AH123" s="0" t="n">
-        <x:v>8.7549</x:v>
-      </x:c>
-      <x:c r="AI123" s="0" t="n">
-        <x:v>4.7859</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:35">
-      <x:c r="A124" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>762</x:v>
-      </x:c>
-      <x:c r="C124" s="0" t="s">
-        <x:v>667</x:v>
-      </x:c>
-      <x:c r="D124" s="0" t="s">
-        <x:v>771</x:v>
-      </x:c>
-      <x:c r="E124" s="0" t="s">
-        <x:v>772</x:v>
-      </x:c>
-      <x:c r="F124" s="0" t="s">
-        <x:v>773</x:v>
-      </x:c>
-      <x:c r="G124" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H124" s="0" t="s">
-        <x:v>774</x:v>
-      </x:c>
-      <x:c r="I124" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J124" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K124" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O124" s="0" t="s">
-        <x:v>766</x:v>
-      </x:c>
-      <x:c r="P124" s="0" t="s">
-        <x:v>775</x:v>
-      </x:c>
-      <x:c r="Q124" s="0" t="s">
-        <x:v>776</x:v>
-      </x:c>
-      <x:c r="R124" s="0" t="n">
-        <x:v>0.046242774566474</x:v>
-      </x:c>
-      <x:c r="T124" s="0" t="s">
-        <x:v>775</x:v>
-      </x:c>
-      <x:c r="U124" s="0" t="n">
-        <x:v>7.45</x:v>
-      </x:c>
-      <x:c r="V124" s="0" t="s">
-        <x:v>777</x:v>
-      </x:c>
-      <x:c r="W124" s="0" t="n">
-        <x:v>-0.0456273764258556</x:v>
-      </x:c>
-      <x:c r="X124" s="0" t="s">
-        <x:v>269</x:v>
-      </x:c>
-      <x:c r="Y124" s="0" t="n">
-        <x:v>0.0557667934093789</x:v>
-      </x:c>
-      <x:c r="Z124" s="0" t="s">
-        <x:v>704</x:v>
-      </x:c>
-      <x:c r="AA124" s="0" t="s">
-        <x:v>705</x:v>
-      </x:c>
-      <x:c r="AB124" s="0" t="s">
-        <x:v>778</x:v>
-      </x:c>
-      <x:c r="AC124" s="0" t="n">
-        <x:v>583.86</x:v>
-      </x:c>
-      <x:c r="AD124" s="0" t="n">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="AG124" s="0" t="n">
-        <x:v>26.2848</x:v>
-      </x:c>
-      <x:c r="AH124" s="0" t="n">
-        <x:v>30.8506</x:v>
-      </x:c>
-      <x:c r="AI124" s="0" t="n">
-        <x:v>16.8646</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:35">
-      <x:c r="A125" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>779</x:v>
-      </x:c>
-      <x:c r="C125" s="0" t="s">
-        <x:v>667</x:v>
-      </x:c>
-      <x:c r="D125" s="0" t="s">
-        <x:v>780</x:v>
-      </x:c>
-      <x:c r="E125" s="0" t="s">
-        <x:v>781</x:v>
-      </x:c>
-      <x:c r="F125" s="0" t="s">
-        <x:v>782</x:v>
-      </x:c>
-      <x:c r="G125" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H125" s="0" t="s">
-        <x:v>783</x:v>
-      </x:c>
-      <x:c r="I125" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J125" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K125" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O125" s="0" t="s">
-        <x:v>766</x:v>
-      </x:c>
-      <x:c r="P125" s="0" t="s">
-        <x:v>784</x:v>
-      </x:c>
-      <x:c r="Q125" s="0" t="s">
-        <x:v>785</x:v>
-      </x:c>
-      <x:c r="R125" s="0" t="n">
-        <x:v>0.0275049115913556</x:v>
-      </x:c>
-      <x:c r="T125" s="0" t="s">
-        <x:v>784</x:v>
-      </x:c>
-      <x:c r="U125" s="0" t="n">
-        <x:v>48.3</x:v>
-      </x:c>
-      <x:c r="V125" s="0" t="s">
-        <x:v>786</x:v>
-      </x:c>
-      <x:c r="W125" s="0" t="n">
-        <x:v>0.00382370698329639</x:v>
-      </x:c>
-      <x:c r="X125" s="0" t="s">
-        <x:v>770</x:v>
-      </x:c>
-      <x:c r="Y125" s="0" t="n">
-        <x:v>0.0279734352988529</x:v>
-      </x:c>
-      <x:c r="Z125" s="0" t="s">
-        <x:v>787</x:v>
-      </x:c>
-      <x:c r="AA125" s="0" t="s">
-        <x:v>788</x:v>
-      </x:c>
-      <x:c r="AB125" s="0" t="s">
-        <x:v>789</x:v>
-      </x:c>
-      <x:c r="AC125" s="0" t="n">
-        <x:v>8347.92</x:v>
-      </x:c>
-      <x:c r="AD125" s="0" t="n">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="AG125" s="0" t="n">
-        <x:v>59.6736</x:v>
-      </x:c>
-      <x:c r="AH125" s="0" t="n">
-        <x:v>70.0392</x:v>
-      </x:c>
-      <x:c r="AI125" s="0" t="n">
-        <x:v>38.2872</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:35">
-      <x:c r="A126" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>779</x:v>
-      </x:c>
-      <x:c r="C126" s="0" t="s">
-        <x:v>667</x:v>
-      </x:c>
-      <x:c r="D126" s="0" t="s">
-        <x:v>790</x:v>
-      </x:c>
-      <x:c r="E126" s="0" t="s">
-        <x:v>791</x:v>
-      </x:c>
-      <x:c r="F126" s="0" t="s">
-        <x:v>792</x:v>
-      </x:c>
-      <x:c r="G126" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H126" s="0" t="s">
-        <x:v>793</x:v>
-      </x:c>
-      <x:c r="I126" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J126" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K126" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O126" s="0" t="s">
-        <x:v>766</x:v>
-      </x:c>
-      <x:c r="P126" s="0" t="s">
-        <x:v>794</x:v>
-      </x:c>
-      <x:c r="Q126" s="0" t="s">
-        <x:v>795</x:v>
-      </x:c>
-      <x:c r="R126" s="0" t="n">
-        <x:v>0.0922619047619048</x:v>
-      </x:c>
-      <x:c r="T126" s="0" t="s">
-        <x:v>794</x:v>
-      </x:c>
-      <x:c r="U126" s="0" t="n">
-        <x:v>29.5</x:v>
-      </x:c>
-      <x:c r="V126" s="0" t="s">
-        <x:v>796</x:v>
-      </x:c>
-      <x:c r="W126" s="0" t="n">
-        <x:v>0.0641301012580547</x:v>
-      </x:c>
-      <x:c r="X126" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="Y126" s="0" t="n">
-        <x:v>0.0948143602332005</x:v>
-      </x:c>
-      <x:c r="Z126" s="0" t="s">
-        <x:v>787</x:v>
-      </x:c>
-      <x:c r="AA126" s="0" t="s">
-        <x:v>788</x:v>
-      </x:c>
-      <x:c r="AB126" s="0" t="s">
-        <x:v>797</x:v>
-      </x:c>
-      <x:c r="AC126" s="0" t="n">
-        <x:v>13166.36</x:v>
-      </x:c>
-      <x:c r="AD126" s="0" t="n">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="AG126" s="0" t="n">
-        <x:v>143.5008</x:v>
-      </x:c>
-      <x:c r="AH126" s="0" t="n">
-        <x:v>168.4276</x:v>
-      </x:c>
-      <x:c r="AI126" s="0" t="n">
-        <x:v>92.0716</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:35">
-      <x:c r="A127" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>798</x:v>
-      </x:c>
-      <x:c r="C127" s="0" t="s">
-        <x:v>667</x:v>
-      </x:c>
-      <x:c r="D127" s="0" t="s">
-        <x:v>353</x:v>
-      </x:c>
-      <x:c r="E127" s="0" t="s">
-        <x:v>799</x:v>
-      </x:c>
-      <x:c r="F127" s="0" t="s">
-        <x:v>800</x:v>
-      </x:c>
-      <x:c r="G127" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H127" s="0" t="s">
-        <x:v>801</x:v>
-      </x:c>
-      <x:c r="I127" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J127" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K127" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O127" s="0" t="s">
-        <x:v>766</x:v>
-      </x:c>
-      <x:c r="P127" s="0" t="s">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="Q127" s="0" t="s">
-        <x:v>802</x:v>
-      </x:c>
-      <x:c r="R127" s="0" t="n">
-        <x:v>0.15</x:v>
-      </x:c>
-      <x:c r="T127" s="0" t="s">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="U127" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="V127" s="0" t="s">
-        <x:v>803</x:v>
-      </x:c>
-      <x:c r="W127" s="0" t="n">
-        <x:v>0.10432033719705</x:v>
-      </x:c>
-      <x:c r="X127" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="Y127" s="0" t="n">
-        <x:v>0.157007376185458</x:v>
-      </x:c>
-      <x:c r="Z127" s="0" t="s">
-        <x:v>704</x:v>
-      </x:c>
-      <x:c r="AA127" s="0" t="s">
-        <x:v>705</x:v>
-      </x:c>
-      <x:c r="AB127" s="0" t="s">
-        <x:v>428</x:v>
-      </x:c>
-      <x:c r="AC127" s="0" t="n">
-        <x:v>189.8</x:v>
-      </x:c>
-      <x:c r="AD127" s="0" t="n">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="AG127" s="0" t="n">
-        <x:v>7.104</x:v>
-      </x:c>
-      <x:c r="AH127" s="0" t="n">
-        <x:v>8.338</x:v>
-      </x:c>
-      <x:c r="AI127" s="0" t="n">
-        <x:v>4.558</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:35">
-      <x:c r="A128" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>798</x:v>
-      </x:c>
-      <x:c r="C128" s="0" t="s">
-        <x:v>667</x:v>
-      </x:c>
-      <x:c r="E128" s="0" t="s">
-        <x:v>804</x:v>
-      </x:c>
-      <x:c r="F128" s="0" t="s">
-        <x:v>805</x:v>
-      </x:c>
-      <x:c r="G128" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H128" s="0" t="s">
-        <x:v>806</x:v>
-      </x:c>
-      <x:c r="I128" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J128" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K128" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O128" s="0" t="s">
-        <x:v>766</x:v>
-      </x:c>
-      <x:c r="P128" s="0" t="s">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="Q128" s="0" t="s">
-        <x:v>802</x:v>
-      </x:c>
-      <x:c r="R128" s="0" t="n">
-        <x:v>0.15</x:v>
-      </x:c>
-      <x:c r="T128" s="0" t="s">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="U128" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="V128" s="0" t="s">
-        <x:v>803</x:v>
-      </x:c>
-      <x:c r="W128" s="0" t="n">
-        <x:v>0.10432033719705</x:v>
-      </x:c>
-      <x:c r="X128" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="Y128" s="0" t="n">
-        <x:v>0.157007376185458</x:v>
-      </x:c>
-      <x:c r="Z128" s="0" t="s">
-        <x:v>704</x:v>
-      </x:c>
-      <x:c r="AA128" s="0" t="s">
-        <x:v>705</x:v>
-      </x:c>
-      <x:c r="AB128" s="0" t="s">
-        <x:v>428</x:v>
-      </x:c>
-      <x:c r="AC128" s="0" t="n">
-        <x:v>189.8</x:v>
-      </x:c>
-      <x:c r="AD128" s="0" t="n">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="AG128" s="0" t="n">
-        <x:v>7.104</x:v>
-      </x:c>
-      <x:c r="AH128" s="0" t="n">
-        <x:v>8.338</x:v>
-      </x:c>
-      <x:c r="AI128" s="0" t="n">
-        <x:v>4.558</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:35">
-      <x:c r="A129" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>798</x:v>
-      </x:c>
-      <x:c r="C129" s="0" t="s">
-        <x:v>667</x:v>
-      </x:c>
-      <x:c r="D129" s="0" t="s">
-        <x:v>807</x:v>
-      </x:c>
-      <x:c r="E129" s="0" t="s">
-        <x:v>808</x:v>
-      </x:c>
-      <x:c r="F129" s="0" t="s">
-        <x:v>809</x:v>
-      </x:c>
-      <x:c r="G129" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H129" s="0" t="s">
-        <x:v>810</x:v>
-      </x:c>
-      <x:c r="I129" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J129" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K129" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O129" s="0" t="s">
-        <x:v>766</x:v>
-      </x:c>
-      <x:c r="P129" s="0" t="s">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="Q129" s="0" t="s">
-        <x:v>802</x:v>
-      </x:c>
-      <x:c r="R129" s="0" t="n">
-        <x:v>0.15</x:v>
-      </x:c>
-      <x:c r="T129" s="0" t="s">
-        <x:v>469</x:v>
-      </x:c>
-      <x:c r="U129" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="V129" s="0" t="s">
-        <x:v>803</x:v>
-      </x:c>
-      <x:c r="W129" s="0" t="n">
-        <x:v>0.10432033719705</x:v>
-      </x:c>
-      <x:c r="X129" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="Y129" s="0" t="n">
-        <x:v>0.157007376185458</x:v>
-      </x:c>
-      <x:c r="Z129" s="0" t="s">
-        <x:v>704</x:v>
-      </x:c>
-      <x:c r="AA129" s="0" t="s">
-        <x:v>705</x:v>
-      </x:c>
-      <x:c r="AB129" s="0" t="s">
-        <x:v>428</x:v>
-      </x:c>
-      <x:c r="AC129" s="0" t="n">
-        <x:v>189.8</x:v>
-      </x:c>
-      <x:c r="AD129" s="0" t="n">
-        <x:v>-1</x:v>
-      </x:c>
-      <x:c r="AG129" s="0" t="n">
-        <x:v>7.104</x:v>
-      </x:c>
-      <x:c r="AH129" s="0" t="n">
-        <x:v>8.338</x:v>
-      </x:c>
-      <x:c r="AI129" s="0" t="n">
-        <x:v>4.558</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="130" spans="1:35">
-      <x:c r="R130" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U130" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W130" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y130" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB130" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC130" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD130" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG130" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH130" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI130" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="131" spans="1:35">
-      <x:c r="R131" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U131" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W131" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y131" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB131" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC131" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD131" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG131" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH131" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI131" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:35">
-      <x:c r="R132" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U132" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W132" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y132" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB132" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC132" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD132" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG132" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH132" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI132" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:35">
-      <x:c r="R133" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U133" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W133" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y133" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB133" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC133" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD133" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG133" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH133" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI133" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="134" spans="1:35">
-      <x:c r="R134" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W134" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y134" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB134" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD134" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI134" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:35">
-      <x:c r="R135" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U135" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W135" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y135" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB135" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC135" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD135" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG135" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH135" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI135" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:35">
-      <x:c r="R136" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W136" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y136" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB136" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD136" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI136" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:35">
-      <x:c r="R137" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W137" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y137" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB137" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD137" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI137" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="138" spans="1:35">
-      <x:c r="R138" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W138" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y138" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB138" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD138" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI138" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="139" spans="1:35">
-      <x:c r="R139" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U139" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W139" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y139" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB139" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC139" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD139" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG139" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH139" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI139" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="140" spans="1:35">
-      <x:c r="R140" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W140" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y140" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB140" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD140" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI140" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="141" spans="1:35">
-      <x:c r="R141" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U141" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W141" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y141" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB141" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC141" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD141" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG141" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH141" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI141" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="142" spans="1:35">
-      <x:c r="R142" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U142" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W142" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y142" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB142" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC142" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD142" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG142" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH142" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI142" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="143" spans="1:35">
-      <x:c r="R143" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W143" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y143" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB143" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD143" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI143" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="144" spans="1:35">
-      <x:c r="R144" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W144" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y144" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB144" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD144" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI144" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="145" spans="1:35">
-      <x:c r="R145" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U145" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W145" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y145" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB145" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC145" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD145" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG145" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH145" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI145" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="146" spans="1:35">
-      <x:c r="R146" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W146" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y146" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB146" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD146" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI146" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="147" spans="1:35">
-      <x:c r="R147" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W147" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y147" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB147" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD147" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI147" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="148" spans="1:35">
-      <x:c r="R148" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U148" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W148" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y148" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB148" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC148" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD148" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG148" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH148" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI148" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="149" spans="1:35">
-      <x:c r="R149" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U149" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W149" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y149" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB149" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC149" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD149" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG149" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH149" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI149" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="150" spans="1:35">
-      <x:c r="R150" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W150" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y150" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB150" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD150" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI150" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="151" spans="1:35">
-      <x:c r="R151" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U151" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W151" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y151" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB151" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC151" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD151" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG151" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH151" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI151" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="152" spans="1:35">
-      <x:c r="R152" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W152" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y152" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB152" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD152" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI152" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="153" spans="1:35">
-      <x:c r="R153" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W153" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y153" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB153" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD153" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI153" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="154" spans="1:35">
-      <x:c r="R154" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W154" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y154" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB154" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD154" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI154" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="155" spans="1:35">
-      <x:c r="R155" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W155" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y155" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB155" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD155" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI155" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="156" spans="1:35">
-      <x:c r="R156" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W156" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y156" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB156" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD156" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI156" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="157" spans="1:35">
-      <x:c r="R157" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U157" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W157" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y157" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB157" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC157" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD157" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG157" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH157" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI157" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="158" spans="1:35">
-      <x:c r="R158" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U158" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W158" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y158" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB158" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC158" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD158" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG158" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH158" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI158" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="159" spans="1:35">
-      <x:c r="R159" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U159" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W159" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y159" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB159" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC159" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD159" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG159" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH159" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI159" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="160" spans="1:35">
-      <x:c r="R160" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W160" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y160" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB160" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD160" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI160" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="161" spans="1:35">
-      <x:c r="R161" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W161" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y161" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB161" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD161" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI161" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="162" spans="1:35">
-      <x:c r="R162" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W162" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y162" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB162" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD162" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI162" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="163" spans="1:35">
-      <x:c r="R163" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W163" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y163" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB163" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD163" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI163" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="164" spans="1:35">
-      <x:c r="R164" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W164" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y164" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB164" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD164" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI164" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="165" spans="1:35">
-      <x:c r="R165" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U165" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W165" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y165" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB165" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC165" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD165" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG165" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH165" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI165" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="166" spans="1:35">
-      <x:c r="R166" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U166" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W166" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y166" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB166" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC166" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD166" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG166" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH166" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI166" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="167" spans="1:35">
-      <x:c r="R167" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U167" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W167" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y167" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB167" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC167" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD167" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG167" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH167" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI167" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="168" spans="1:35">
-      <x:c r="R168" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U168" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W168" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y168" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB168" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC168" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD168" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG168" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH168" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI168" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="169" spans="1:35">
-      <x:c r="R169" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U169" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W169" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y169" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB169" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC169" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD169" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG169" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH169" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI169" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="170" spans="1:35">
-      <x:c r="R170" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U170" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W170" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y170" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB170" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC170" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD170" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG170" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH170" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI170" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="171" spans="1:35">
-      <x:c r="R171" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U171" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W171" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y171" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB171" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC171" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD171" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG171" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH171" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI171" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="172" spans="1:35">
-      <x:c r="R172" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U172" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W172" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y172" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB172" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC172" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD172" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG172" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH172" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI172" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="173" spans="1:35">
-      <x:c r="R173" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U173" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W173" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y173" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB173" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC173" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD173" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG173" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH173" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI173" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="174" spans="1:35">
-      <x:c r="R174" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U174" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W174" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y174" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB174" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC174" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD174" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG174" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH174" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI174" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="175" spans="1:35">
-      <x:c r="R175" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U175" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W175" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y175" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB175" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC175" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD175" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG175" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH175" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI175" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="176" spans="1:35">
-      <x:c r="R176" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U176" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W176" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y176" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB176" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC176" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD176" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG176" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH176" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI176" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="177" spans="1:35">
-      <x:c r="R177" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U177" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W177" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y177" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB177" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC177" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD177" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG177" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH177" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI177" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="178" spans="1:35">
-      <x:c r="R178" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U178" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W178" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y178" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB178" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC178" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD178" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG178" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH178" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI178" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="179" spans="1:35">
-      <x:c r="R179" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U179" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W179" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y179" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB179" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC179" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD179" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG179" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH179" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI179" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="180" spans="1:35">
-      <x:c r="R180" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U180" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W180" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y180" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB180" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC180" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD180" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG180" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH180" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI180" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="181" spans="1:35">
-      <x:c r="R181" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U181" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W181" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y181" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB181" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC181" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD181" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG181" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH181" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI181" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="182" spans="1:35">
-      <x:c r="R182" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W182" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y182" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB182" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD182" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI182" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="183" spans="1:35">
-      <x:c r="R183" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U183" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W183" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y183" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB183" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC183" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD183" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG183" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH183" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI183" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="184" spans="1:35">
-      <x:c r="R184" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W184" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y184" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB184" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD184" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI184" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="185" spans="1:35">
-      <x:c r="R185" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W185" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y185" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB185" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD185" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI185" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="186" spans="1:35">
-      <x:c r="R186" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W186" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y186" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB186" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD186" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI186" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="187" spans="1:35">
-      <x:c r="R187" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W187" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y187" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB187" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD187" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI187" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="188" spans="1:35">
-      <x:c r="R188" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W188" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y188" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB188" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD188" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI188" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="189" spans="1:35">
-      <x:c r="R189" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W189" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y189" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB189" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD189" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI189" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="190" spans="1:35">
-      <x:c r="R190" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U190" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W190" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y190" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB190" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC190" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD190" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG190" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH190" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI190" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="191" spans="1:35">
-      <x:c r="R191" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U191" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W191" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y191" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB191" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC191" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD191" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG191" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH191" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI191" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="192" spans="1:35">
-      <x:c r="R192" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W192" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y192" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB192" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD192" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI192" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="193" spans="1:35">
-      <x:c r="R193" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W193" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y193" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB193" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD193" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI193" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="194" spans="1:35">
-      <x:c r="R194" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U194" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W194" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y194" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB194" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC194" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD194" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG194" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH194" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI194" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="195" spans="1:35">
-      <x:c r="R195" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U195" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W195" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y195" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB195" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC195" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD195" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG195" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH195" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI195" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="196" spans="1:35">
-      <x:c r="R196" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W196" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y196" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB196" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD196" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI196" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="197" spans="1:35">
-      <x:c r="R197" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W197" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y197" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB197" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD197" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="198" spans="1:35">
-      <x:c r="R198" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W198" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y198" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB198" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD198" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI198" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="199" spans="1:35">
-      <x:c r="R199" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W199" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y199" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB199" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD199" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI199" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="200" spans="1:35">
-      <x:c r="R200" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U200" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W200" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y200" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB200" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC200" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD200" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG200" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH200" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI200" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="201" spans="1:35">
-      <x:c r="R201" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U201" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W201" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y201" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB201" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC201" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD201" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG201" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH201" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI201" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="202" spans="1:35">
-      <x:c r="R202" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W202" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y202" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB202" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD202" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI202" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="203" spans="1:35">
-      <x:c r="R203" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W203" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y203" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB203" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD203" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI203" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="204" spans="1:35">
-      <x:c r="R204" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U204" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W204" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y204" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB204" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC204" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD204" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG204" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH204" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI204" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="205" spans="1:35">
-      <x:c r="R205" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W205" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y205" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB205" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD205" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI205" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="206" spans="1:35">
-      <x:c r="R206" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W206" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y206" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB206" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD206" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI206" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="207" spans="1:35">
-      <x:c r="R207" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W207" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y207" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB207" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD207" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI207" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="208" spans="1:35">
-      <x:c r="R208" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W208" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y208" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB208" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD208" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI208" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="209" spans="1:35">
-      <x:c r="R209" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U209" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W209" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y209" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB209" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC209" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD209" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG209" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH209" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI209" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="210" spans="1:35">
-      <x:c r="R210" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U210" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W210" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y210" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB210" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC210" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD210" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG210" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH210" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI210" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="211" spans="1:35">
-      <x:c r="R211" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U211" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W211" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y211" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB211" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC211" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD211" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG211" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH211" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI211" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="212" spans="1:35">
-      <x:c r="R212" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U212" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W212" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y212" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB212" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC212" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD212" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG212" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH212" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI212" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="213" spans="1:35">
-      <x:c r="R213" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U213" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W213" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y213" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB213" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC213" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD213" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG213" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH213" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI213" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="214" spans="1:35">
-      <x:c r="R214" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U214" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W214" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y214" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB214" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC214" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD214" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG214" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH214" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI214" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="215" spans="1:35">
-      <x:c r="R215" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U215" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W215" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y215" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB215" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC215" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD215" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG215" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH215" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI215" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="216" spans="1:35">
-      <x:c r="R216" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W216" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y216" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB216" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD216" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI216" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="217" spans="1:35">
-      <x:c r="R217" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U217" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W217" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y217" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB217" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC217" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD217" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG217" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH217" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI217" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="218" spans="1:35">
-      <x:c r="R218" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U218" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W218" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y218" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB218" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC218" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD218" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG218" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH218" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI218" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="219" spans="1:35">
-      <x:c r="R219" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U219" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W219" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y219" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB219" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC219" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD219" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG219" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH219" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI219" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="220" spans="1:35">
-      <x:c r="R220" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W220" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y220" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB220" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD220" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI220" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="221" spans="1:35">
-      <x:c r="R221" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W221" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y221" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB221" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD221" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI221" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="222" spans="1:35">
-      <x:c r="R222" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W222" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y222" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB222" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD222" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI222" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="223" spans="1:35">
-      <x:c r="R223" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U223" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W223" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y223" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB223" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC223" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD223" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG223" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH223" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI223" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="224" spans="1:35">
-      <x:c r="R224" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U224" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W224" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y224" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB224" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC224" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD224" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG224" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH224" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI224" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="225" spans="1:35">
-      <x:c r="R225" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U225" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W225" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y225" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB225" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC225" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD225" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG225" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH225" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI225" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="226" spans="1:35">
-      <x:c r="R226" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W226" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y226" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB226" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD226" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI226" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="227" spans="1:35">
-      <x:c r="R227" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U227" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W227" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y227" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB227" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC227" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD227" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG227" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH227" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI227" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="228" spans="1:35">
-      <x:c r="R228" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W228" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y228" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB228" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD228" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI228" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="229" spans="1:35">
-      <x:c r="R229" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U229" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W229" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y229" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB229" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC229" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD229" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG229" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH229" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI229" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="230" spans="1:35">
-      <x:c r="R230" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U230" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W230" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y230" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB230" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC230" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD230" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG230" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH230" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI230" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="231" spans="1:35">
-      <x:c r="R231" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W231" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y231" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB231" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD231" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI231" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="232" spans="1:35">
-      <x:c r="R232" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W232" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y232" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB232" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD232" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI232" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="233" spans="1:35">
-      <x:c r="R233" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W233" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y233" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB233" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD233" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI233" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="234" spans="1:35">
-      <x:c r="R234" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U234" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W234" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y234" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB234" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC234" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD234" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG234" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH234" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI234" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="235" spans="1:35">
-      <x:c r="R235" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W235" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y235" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB235" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD235" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI235" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="236" spans="1:35">
-      <x:c r="R236" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W236" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y236" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB236" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD236" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI236" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="237" spans="1:35">
-      <x:c r="R237" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U237" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W237" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y237" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB237" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC237" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD237" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG237" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH237" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI237" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="238" spans="1:35">
-      <x:c r="R238" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U238" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W238" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y238" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB238" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC238" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD238" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG238" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH238" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI238" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="239" spans="1:35">
-      <x:c r="R239" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U239" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W239" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y239" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB239" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC239" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD239" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG239" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH239" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI239" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="240" spans="1:35">
-      <x:c r="R240" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U240" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W240" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y240" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB240" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC240" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD240" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG240" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH240" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI240" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="241" spans="1:35">
-      <x:c r="R241" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W241" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y241" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB241" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD241" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI241" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="242" spans="1:35">
-      <x:c r="R242" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U242" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W242" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y242" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB242" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC242" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD242" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG242" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH242" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI242" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="243" spans="1:35">
-      <x:c r="R243" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W243" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y243" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB243" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD243" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI243" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="244" spans="1:35">
-      <x:c r="R244" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U244" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W244" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y244" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB244" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC244" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD244" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG244" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH244" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI244" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="245" spans="1:35">
-      <x:c r="R245" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U245" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W245" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y245" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB245" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC245" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD245" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG245" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH245" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI245" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="246" spans="1:35">
-      <x:c r="R246" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U246" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W246" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y246" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB246" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC246" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD246" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG246" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH246" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI246" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="247" spans="1:35">
-      <x:c r="R247" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W247" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y247" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB247" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD247" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI247" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="248" spans="1:35">
-      <x:c r="R248" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W248" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y248" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB248" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD248" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI248" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="249" spans="1:35">
-      <x:c r="R249" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W249" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y249" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB249" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD249" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI249" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="250" spans="1:35">
-      <x:c r="R250" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W250" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y250" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB250" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD250" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI250" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="251" spans="1:35">
-      <x:c r="R251" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U251" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W251" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y251" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB251" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC251" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD251" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG251" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH251" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI251" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="252" spans="1:35">
-      <x:c r="R252" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U252" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W252" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y252" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB252" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC252" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD252" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG252" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH252" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI252" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="253" spans="1:35">
-      <x:c r="R253" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U253" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W253" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y253" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB253" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC253" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD253" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG253" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH253" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI253" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="254" spans="1:35">
-      <x:c r="R254" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W254" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y254" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB254" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD254" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI254" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="255" spans="1:35">
-      <x:c r="R255" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W255" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y255" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB255" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD255" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI255" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="256" spans="1:35">
-      <x:c r="R256" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W256" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y256" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB256" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD256" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI256" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="257" spans="1:35">
-      <x:c r="R257" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U257" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W257" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y257" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB257" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC257" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD257" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG257" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH257" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI257" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="258" spans="1:35">
-      <x:c r="R258" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W258" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y258" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB258" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD258" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI258" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="259" spans="1:35">
-      <x:c r="R259" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U259" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W259" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y259" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB259" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC259" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD259" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG259" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH259" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI259" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="260" spans="1:35">
-      <x:c r="R260" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U260" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W260" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y260" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB260" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC260" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD260" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG260" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH260" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI260" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="261" spans="1:35">
-      <x:c r="R261" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U261" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W261" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y261" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB261" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC261" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD261" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG261" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH261" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI261" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="262" spans="1:35">
-      <x:c r="R262" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U262" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W262" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y262" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB262" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC262" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD262" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG262" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH262" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI262" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="263" spans="1:35">
-      <x:c r="R263" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U263" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W263" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y263" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB263" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC263" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD263" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG263" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH263" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI263" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="264" spans="1:35">
-      <x:c r="R264" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U264" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W264" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y264" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB264" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC264" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD264" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG264" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH264" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI264" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="265" spans="1:35">
-      <x:c r="R265" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U265" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W265" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y265" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB265" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC265" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD265" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG265" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH265" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI265" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="266" spans="1:35">
-      <x:c r="R266" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U266" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W266" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y266" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB266" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC266" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD266" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG266" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH266" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI266" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="267" spans="1:35">
-      <x:c r="R267" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U267" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W267" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y267" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB267" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC267" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD267" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG267" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH267" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI267" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="268" spans="1:35">
-      <x:c r="R268" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U268" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W268" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y268" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB268" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC268" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD268" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG268" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH268" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI268" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="269" spans="1:35">
-      <x:c r="R269" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U269" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W269" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y269" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB269" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC269" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD269" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG269" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH269" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI269" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="270" spans="1:35">
-      <x:c r="R270" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U270" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W270" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y270" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB270" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC270" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD270" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG270" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH270" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI270" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="271" spans="1:35">
-      <x:c r="R271" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U271" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W271" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y271" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB271" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC271" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD271" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG271" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH271" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI271" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="272" spans="1:35">
-      <x:c r="R272" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U272" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W272" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y272" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB272" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC272" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD272" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG272" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH272" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI272" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="273" spans="1:35">
-      <x:c r="R273" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U273" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W273" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y273" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB273" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC273" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD273" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG273" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH273" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI273" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="274" spans="1:35">
-      <x:c r="R274" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U274" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W274" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y274" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB274" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC274" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD274" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG274" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH274" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI274" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="275" spans="1:35">
-      <x:c r="R275" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U275" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W275" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y275" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB275" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC275" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD275" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG275" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH275" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI275" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="276" spans="1:35">
-      <x:c r="R276" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U276" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W276" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y276" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB276" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC276" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD276" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG276" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH276" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI276" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="277" spans="1:35">
-      <x:c r="R277" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U277" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W277" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y277" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB277" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC277" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD277" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG277" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH277" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI277" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="278" spans="1:35">
-      <x:c r="R278" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U278" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W278" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y278" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB278" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC278" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD278" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG278" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH278" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI278" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="279" spans="1:35">
-      <x:c r="R279" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U279" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W279" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y279" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB279" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC279" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD279" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG279" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH279" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI279" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="280" spans="1:35">
-      <x:c r="R280" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U280" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W280" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y280" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB280" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC280" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD280" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG280" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH280" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI280" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="281" spans="1:35">
-      <x:c r="R281" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U281" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W281" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y281" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB281" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC281" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD281" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG281" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH281" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI281" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="282" spans="1:35">
-      <x:c r="R282" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U282" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W282" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y282" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB282" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC282" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD282" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG282" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH282" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI282" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="283" spans="1:35">
-      <x:c r="R283" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U283" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W283" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y283" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB283" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC283" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD283" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG283" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH283" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI283" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="284" spans="1:35">
-      <x:c r="R284" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U284" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W284" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y284" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB284" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC284" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD284" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG284" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH284" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI284" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="285" spans="1:35">
-      <x:c r="R285" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U285" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W285" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y285" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB285" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC285" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD285" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG285" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH285" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI285" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="286" spans="1:35">
-      <x:c r="R286" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U286" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W286" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y286" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB286" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC286" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD286" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG286" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH286" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI286" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="287" spans="1:35">
-      <x:c r="R287" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U287" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W287" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y287" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB287" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC287" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD287" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG287" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH287" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI287" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="288" spans="1:35">
-      <x:c r="R288" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U288" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W288" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y288" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB288" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC288" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD288" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG288" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH288" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI288" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="289" spans="1:35">
-      <x:c r="R289" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U289" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W289" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y289" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB289" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC289" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD289" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG289" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH289" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI289" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="290" spans="1:35">
-      <x:c r="R290" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U290" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W290" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y290" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB290" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC290" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD290" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG290" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH290" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI290" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="291" spans="1:35">
-      <x:c r="R291" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U291" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W291" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y291" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB291" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC291" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD291" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG291" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH291" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI291" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="292" spans="1:35">
-      <x:c r="R292" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U292" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W292" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y292" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB292" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC292" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD292" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG292" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH292" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI292" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="293" spans="1:35">
-      <x:c r="R293" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U293" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W293" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y293" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB293" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC293" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD293" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG293" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH293" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI293" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="294" spans="1:35">
-      <x:c r="R294" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U294" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W294" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y294" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB294" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC294" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD294" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG294" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH294" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI294" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="295" spans="1:35">
-      <x:c r="R295" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U295" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W295" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y295" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB295" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC295" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD295" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG295" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH295" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI295" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="296" spans="1:35">
-      <x:c r="R296" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U296" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W296" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y296" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB296" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC296" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD296" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG296" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH296" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI296" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="297" spans="1:35">
-      <x:c r="R297" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U297" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W297" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y297" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB297" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC297" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD297" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG297" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH297" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI297" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="298" spans="1:35">
-      <x:c r="R298" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U298" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W298" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y298" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB298" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC298" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD298" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG298" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH298" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI298" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="299" spans="1:35">
-      <x:c r="R299" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U299" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W299" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y299" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB299" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC299" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD299" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG299" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH299" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI299" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="300" spans="1:35">
-      <x:c r="R300" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U300" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W300" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y300" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB300" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC300" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD300" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG300" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH300" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI300" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="301" spans="1:35">
-      <x:c r="R301" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U301" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W301" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y301" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB301" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC301" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD301" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG301" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH301" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI301" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="302" spans="1:35">
-      <x:c r="R302" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U302" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W302" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y302" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB302" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC302" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD302" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG302" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH302" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI302" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="303" spans="1:35">
-      <x:c r="R303" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U303" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W303" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y303" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB303" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC303" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD303" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG303" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH303" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI303" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="304" spans="1:35">
-      <x:c r="R304" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U304" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W304" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y304" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB304" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC304" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD304" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG304" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH304" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI304" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="305" spans="1:35">
-      <x:c r="R305" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U305" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W305" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y305" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB305" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC305" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD305" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG305" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH305" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI305" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="306" spans="1:35">
-      <x:c r="R306" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U306" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W306" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y306" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB306" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC306" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD306" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG306" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH306" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI306" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="307" spans="1:35">
-      <x:c r="R307" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U307" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W307" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y307" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB307" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC307" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD307" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG307" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH307" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI307" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="308" spans="1:35">
-      <x:c r="R308" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U308" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W308" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y308" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB308" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC308" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD308" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG308" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH308" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI308" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="309" spans="1:35">
-      <x:c r="R309" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U309" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W309" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y309" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB309" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC309" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD309" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG309" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH309" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI309" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="310" spans="1:35">
-      <x:c r="R310" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U310" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W310" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y310" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB310" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC310" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD310" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG310" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH310" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI310" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="311" spans="1:35">
-      <x:c r="R311" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U311" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W311" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y311" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB311" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC311" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD311" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG311" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH311" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI311" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="312" spans="1:35">
-      <x:c r="R312" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U312" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W312" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y312" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB312" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC312" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD312" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG312" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH312" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI312" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="313" spans="1:35">
-      <x:c r="R313" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U313" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W313" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y313" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB313" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC313" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD313" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG313" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH313" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI313" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="314" spans="1:35">
-      <x:c r="R314" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U314" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W314" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y314" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB314" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC314" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD314" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG314" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH314" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI314" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="315" spans="1:35">
-      <x:c r="R315" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U315" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W315" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y315" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB315" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC315" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD315" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG315" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH315" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI315" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="316" spans="1:35">
-      <x:c r="R316" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U316" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W316" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y316" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB316" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC316" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD316" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG316" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH316" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI316" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="317" spans="1:35">
-      <x:c r="R317" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U317" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W317" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y317" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB317" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC317" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD317" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG317" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH317" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI317" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="318" spans="1:35">
-      <x:c r="R318" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U318" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W318" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y318" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB318" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC318" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD318" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG318" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH318" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI318" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="319" spans="1:35">
-      <x:c r="R319" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U319" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W319" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y319" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB319" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC319" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD319" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG319" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH319" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI319" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="320" spans="1:35">
-      <x:c r="R320" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U320" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W320" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y320" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB320" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC320" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD320" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG320" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH320" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI320" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="321" spans="1:35">
-      <x:c r="R321" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U321" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W321" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y321" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB321" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC321" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD321" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG321" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH321" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI321" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="322" spans="1:35">
-      <x:c r="R322" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U322" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W322" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y322" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB322" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC322" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD322" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG322" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH322" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI322" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="323" spans="1:35">
-      <x:c r="R323" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U323" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W323" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y323" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB323" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC323" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD323" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG323" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH323" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI323" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="324" spans="1:35">
-      <x:c r="R324" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U324" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W324" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y324" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB324" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC324" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD324" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG324" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH324" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI324" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="325" spans="1:35">
-      <x:c r="R325" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U325" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W325" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y325" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB325" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC325" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD325" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG325" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH325" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI325" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="326" spans="1:35">
-      <x:c r="R326" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U326" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W326" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y326" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB326" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC326" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD326" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG326" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH326" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI326" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="327" spans="1:35">
-      <x:c r="R327" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U327" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W327" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y327" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB327" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC327" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD327" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG327" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH327" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI327" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="328" spans="1:35">
-      <x:c r="R328" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U328" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W328" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y328" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB328" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC328" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD328" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG328" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH328" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI328" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="329" spans="1:35">
-      <x:c r="R329" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U329" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W329" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y329" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB329" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC329" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD329" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG329" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH329" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI329" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="330" spans="1:35">
-      <x:c r="R330" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U330" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W330" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y330" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB330" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC330" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD330" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG330" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH330" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI330" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="331" spans="1:35">
-      <x:c r="R331" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U331" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W331" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y331" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB331" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC331" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD331" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG331" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH331" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI331" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="332" spans="1:35">
-      <x:c r="R332" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U332" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W332" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y332" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB332" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC332" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD332" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG332" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH332" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI332" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="333" spans="1:35">
-      <x:c r="R333" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U333" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W333" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y333" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB333" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC333" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD333" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG333" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH333" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI333" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="334" spans="1:35">
-      <x:c r="R334" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U334" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W334" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y334" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB334" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC334" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD334" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG334" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH334" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI334" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="335" spans="1:35">
-      <x:c r="R335" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U335" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W335" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y335" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB335" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC335" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD335" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG335" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH335" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI335" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="336" spans="1:35">
-      <x:c r="R336" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U336" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W336" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y336" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB336" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC336" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD336" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG336" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH336" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI336" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="337" spans="1:35">
-      <x:c r="R337" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U337" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W337" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y337" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB337" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC337" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD337" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG337" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH337" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI337" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="338" spans="1:35">
-      <x:c r="R338" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U338" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W338" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y338" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB338" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC338" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD338" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG338" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH338" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI338" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="339" spans="1:35">
-      <x:c r="R339" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U339" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W339" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y339" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB339" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC339" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD339" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG339" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH339" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI339" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="340" spans="1:35">
-      <x:c r="R340" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U340" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W340" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y340" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB340" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC340" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD340" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG340" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH340" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI340" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="341" spans="1:35">
-      <x:c r="R341" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U341" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W341" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y341" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB341" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC341" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD341" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG341" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH341" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI341" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="342" spans="1:35">
-      <x:c r="R342" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U342" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W342" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y342" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB342" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC342" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD342" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG342" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH342" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI342" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="343" spans="1:35">
-      <x:c r="R343" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U343" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W343" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y343" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB343" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC343" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD343" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG343" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH343" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI343" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="344" spans="1:35">
-      <x:c r="R344" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U344" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W344" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y344" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB344" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC344" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD344" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG344" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH344" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI344" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="345" spans="1:35">
-      <x:c r="R345" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U345" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W345" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y345" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB345" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC345" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD345" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG345" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH345" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI345" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="346" spans="1:35">
-      <x:c r="R346" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U346" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W346" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y346" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB346" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC346" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD346" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG346" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH346" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI346" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="347" spans="1:35">
-      <x:c r="R347" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U347" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W347" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y347" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB347" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC347" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD347" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG347" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH347" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI347" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="348" spans="1:35">
-      <x:c r="R348" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U348" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W348" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y348" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB348" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC348" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD348" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG348" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH348" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI348" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="349" spans="1:35">
-      <x:c r="R349" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U349" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W349" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y349" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB349" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC349" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD349" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG349" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH349" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI349" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="350" spans="1:35">
-      <x:c r="R350" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U350" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W350" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y350" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB350" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC350" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD350" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG350" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH350" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI350" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="351" spans="1:35">
-      <x:c r="R351" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U351" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W351" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y351" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB351" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC351" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD351" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG351" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH351" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI351" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="352" spans="1:35">
-      <x:c r="R352" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U352" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W352" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y352" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB352" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC352" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD352" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG352" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH352" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI352" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="353" spans="1:35">
-      <x:c r="R353" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U353" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W353" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y353" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB353" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC353" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD353" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG353" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH353" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI353" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="354" spans="1:35">
-      <x:c r="R354" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U354" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W354" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y354" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB354" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC354" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD354" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG354" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH354" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI354" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="355" spans="1:35">
-      <x:c r="R355" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U355" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W355" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y355" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB355" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC355" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD355" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG355" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH355" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI355" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="356" spans="1:35">
-      <x:c r="R356" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U356" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W356" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y356" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB356" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC356" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD356" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG356" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH356" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI356" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="357" spans="1:35">
-      <x:c r="R357" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U357" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W357" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y357" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB357" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC357" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD357" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG357" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH357" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI357" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="358" spans="1:35">
-      <x:c r="R358" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U358" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W358" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y358" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB358" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC358" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD358" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG358" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH358" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI358" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="359" spans="1:35">
-      <x:c r="R359" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U359" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W359" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y359" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB359" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC359" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD359" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG359" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH359" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI359" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="360" spans="1:35">
-      <x:c r="R360" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U360" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W360" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y360" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB360" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC360" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD360" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG360" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH360" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI360" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="361" spans="1:35">
-      <x:c r="R361" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U361" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W361" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y361" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB361" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC361" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD361" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG361" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH361" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI361" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="362" spans="1:35">
-      <x:c r="R362" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U362" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W362" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y362" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB362" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC362" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD362" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG362" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH362" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI362" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="363" spans="1:35">
-      <x:c r="R363" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U363" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W363" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y363" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB363" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC363" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD363" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG363" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH363" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI363" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="364" spans="1:35">
-      <x:c r="R364" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U364" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W364" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y364" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB364" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC364" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD364" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG364" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH364" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI364" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="365" spans="1:35">
-      <x:c r="R365" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U365" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W365" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y365" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB365" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC365" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD365" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG365" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH365" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI365" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="366" spans="1:35">
-      <x:c r="R366" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U366" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W366" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y366" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB366" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC366" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD366" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG366" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH366" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI366" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="367" spans="1:35">
-      <x:c r="R367" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U367" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W367" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y367" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB367" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC367" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD367" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG367" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH367" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI367" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="368" spans="1:35">
-      <x:c r="R368" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U368" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W368" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y368" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB368" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC368" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD368" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG368" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH368" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI368" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="369" spans="1:35">
-      <x:c r="R369" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U369" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W369" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y369" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB369" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC369" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD369" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG369" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH369" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI369" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="370" spans="1:35">
-      <x:c r="R370" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U370" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W370" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y370" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB370" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC370" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD370" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG370" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH370" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI370" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="371" spans="1:35">
-      <x:c r="R371" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U371" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W371" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y371" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB371" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC371" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD371" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG371" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH371" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI371" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="372" spans="1:35">
-      <x:c r="R372" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U372" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W372" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y372" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB372" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC372" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD372" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG372" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH372" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI372" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="373" spans="1:35">
-      <x:c r="R373" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U373" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W373" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y373" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB373" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC373" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD373" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG373" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH373" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI373" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="374" spans="1:35">
-      <x:c r="R374" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U374" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W374" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y374" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB374" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC374" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD374" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG374" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH374" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI374" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="375" spans="1:35">
-      <x:c r="R375" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U375" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W375" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y375" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB375" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC375" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD375" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG375" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH375" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI375" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="376" spans="1:35">
-      <x:c r="R376" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U376" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W376" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y376" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB376" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC376" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD376" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG376" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH376" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI376" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="377" spans="1:35">
-      <x:c r="R377" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U377" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W377" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y377" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB377" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC377" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD377" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG377" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH377" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI377" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="378" spans="1:35">
-      <x:c r="R378" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U378" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W378" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y378" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB378" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC378" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD378" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG378" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH378" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI378" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="379" spans="1:35">
-      <x:c r="R379" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U379" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W379" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y379" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB379" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC379" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD379" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG379" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH379" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI379" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="380" spans="1:35">
-      <x:c r="R380" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U380" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W380" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y380" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB380" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC380" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD380" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG380" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH380" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI380" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="381" spans="1:35">
-      <x:c r="R381" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U381" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W381" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y381" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB381" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC381" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD381" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG381" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH381" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI381" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="382" spans="1:35">
-      <x:c r="R382" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U382" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W382" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y382" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB382" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC382" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD382" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG382" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH382" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI382" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="383" spans="1:35">
-      <x:c r="R383" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U383" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W383" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y383" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB383" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC383" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD383" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG383" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH383" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI383" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="384" spans="1:35">
-      <x:c r="R384" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U384" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W384" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y384" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB384" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC384" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD384" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG384" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH384" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI384" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="385" spans="1:35">
-      <x:c r="R385" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U385" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W385" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y385" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB385" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC385" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD385" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG385" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH385" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI385" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="386" spans="1:35">
-      <x:c r="R386" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U386" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W386" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y386" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB386" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC386" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD386" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG386" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH386" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI386" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="387" spans="1:35">
-      <x:c r="R387" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U387" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W387" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y387" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB387" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC387" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD387" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG387" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH387" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI387" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="388" spans="1:35">
-      <x:c r="R388" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U388" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W388" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y388" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB388" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC388" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD388" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG388" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH388" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI388" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="389" spans="1:35">
-      <x:c r="R389" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U389" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W389" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y389" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB389" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC389" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD389" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG389" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH389" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI389" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="390" spans="1:35">
-      <x:c r="R390" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U390" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W390" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y390" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB390" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC390" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD390" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG390" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH390" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI390" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="391" spans="1:35">
-      <x:c r="R391" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U391" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W391" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y391" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB391" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC391" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD391" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG391" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH391" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI391" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="392" spans="1:35">
-      <x:c r="R392" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U392" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W392" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y392" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB392" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC392" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD392" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG392" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH392" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI392" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="393" spans="1:35">
-      <x:c r="R393" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U393" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W393" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y393" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB393" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC393" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD393" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG393" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH393" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI393" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="394" spans="1:35">
-      <x:c r="R394" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U394" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W394" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y394" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB394" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC394" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD394" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG394" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH394" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI394" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="395" spans="1:35">
-      <x:c r="R395" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U395" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W395" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y395" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB395" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC395" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD395" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG395" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH395" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI395" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="396" spans="1:35">
-      <x:c r="R396" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U396" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W396" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y396" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB396" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC396" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD396" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG396" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH396" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI396" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="397" spans="1:35">
-      <x:c r="R397" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U397" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W397" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y397" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB397" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC397" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD397" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG397" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH397" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI397" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="398" spans="1:35">
-      <x:c r="R398" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U398" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W398" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y398" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB398" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC398" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD398" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG398" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH398" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI398" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="399" spans="1:35">
-      <x:c r="R399" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U399" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W399" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y399" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB399" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC399" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD399" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG399" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH399" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI399" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="400" spans="1:35">
-      <x:c r="R400" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U400" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W400" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y400" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB400" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC400" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD400" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG400" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH400" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI400" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="401" spans="1:35">
-      <x:c r="R401" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U401" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W401" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y401" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB401" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC401" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD401" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG401" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH401" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI401" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="402" spans="1:35">
-      <x:c r="R402" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U402" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W402" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y402" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB402" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC402" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD402" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG402" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH402" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI402" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="403" spans="1:35">
-      <x:c r="R403" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U403" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W403" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y403" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB403" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC403" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD403" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG403" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH403" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI403" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="404" spans="1:35">
-      <x:c r="R404" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U404" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W404" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y404" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB404" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC404" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD404" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG404" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH404" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI404" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="405" spans="1:35">
-      <x:c r="R405" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U405" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W405" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y405" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB405" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC405" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD405" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG405" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH405" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI405" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="406" spans="1:35">
-      <x:c r="R406" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U406" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W406" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y406" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB406" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC406" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD406" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG406" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH406" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI406" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="407" spans="1:35">
-      <x:c r="R407" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U407" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W407" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y407" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB407" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC407" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD407" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG407" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH407" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI407" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="408" spans="1:35">
-      <x:c r="R408" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U408" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W408" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y408" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB408" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC408" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD408" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG408" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH408" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI408" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="409" spans="1:35">
-      <x:c r="R409" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U409" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W409" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y409" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB409" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC409" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD409" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG409" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH409" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI409" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="410" spans="1:35">
-      <x:c r="R410" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U410" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W410" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y410" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB410" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC410" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD410" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG410" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH410" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI410" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="411" spans="1:35">
-      <x:c r="R411" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U411" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W411" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y411" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB411" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC411" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD411" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG411" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH411" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI411" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="412" spans="1:35">
-      <x:c r="R412" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="U412" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="W412" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="Y412" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AB412" s="0" t="s">
-        <x:v>812</x:v>
-      </x:c>
-      <x:c r="AC412" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD412" s="0" t="s">
-        <x:v>811</x:v>
-      </x:c>
-      <x:c r="AG412" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AH412" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AI412" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="413" spans="1:35">
-      <x:c r="AB413" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AC413" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AD413" s="0" t="s">
-        <x:v>813</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
